--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_302.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_302.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29092-d78944-Reviews-Grand_Legacy_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>508</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Grand-Legacy-At-The-Park.h13060062.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_302.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_302.xlsx
@@ -7083,7 +7083,7 @@
         <v>11391</v>
       </c>
       <c r="B2" t="n">
-        <v>149590</v>
+        <v>181083</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -7148,7 +7148,7 @@
         <v>11391</v>
       </c>
       <c r="B3" t="n">
-        <v>149591</v>
+        <v>181084</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -7213,7 +7213,7 @@
         <v>11391</v>
       </c>
       <c r="B4" t="n">
-        <v>149592</v>
+        <v>181085</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
@@ -7343,7 +7343,7 @@
         <v>11391</v>
       </c>
       <c r="B6" t="n">
-        <v>149593</v>
+        <v>181086</v>
       </c>
       <c r="C6" t="s">
         <v>84</v>
@@ -7408,7 +7408,7 @@
         <v>11391</v>
       </c>
       <c r="B7" t="n">
-        <v>149594</v>
+        <v>181087</v>
       </c>
       <c r="C7" t="s">
         <v>90</v>
@@ -7540,7 +7540,7 @@
         <v>11391</v>
       </c>
       <c r="B9" t="n">
-        <v>149595</v>
+        <v>181088</v>
       </c>
       <c r="C9" t="s">
         <v>105</v>
@@ -7609,7 +7609,7 @@
         <v>11391</v>
       </c>
       <c r="B10" t="n">
-        <v>149596</v>
+        <v>149696</v>
       </c>
       <c r="C10" t="s">
         <v>114</v>
@@ -7674,7 +7674,7 @@
         <v>11391</v>
       </c>
       <c r="B11" t="n">
-        <v>149597</v>
+        <v>181089</v>
       </c>
       <c r="C11" t="s">
         <v>120</v>
@@ -7739,7 +7739,7 @@
         <v>11391</v>
       </c>
       <c r="B12" t="n">
-        <v>149598</v>
+        <v>181090</v>
       </c>
       <c r="C12" t="s">
         <v>126</v>
@@ -7804,7 +7804,7 @@
         <v>11391</v>
       </c>
       <c r="B13" t="n">
-        <v>149599</v>
+        <v>181091</v>
       </c>
       <c r="C13" t="s">
         <v>133</v>
@@ -7934,7 +7934,7 @@
         <v>11391</v>
       </c>
       <c r="B15" t="n">
-        <v>149600</v>
+        <v>181092</v>
       </c>
       <c r="C15" t="s">
         <v>146</v>
@@ -8068,7 +8068,7 @@
         <v>11391</v>
       </c>
       <c r="B17" t="n">
-        <v>149601</v>
+        <v>181093</v>
       </c>
       <c r="C17" t="s">
         <v>163</v>
@@ -8198,7 +8198,7 @@
         <v>11391</v>
       </c>
       <c r="B19" t="n">
-        <v>149602</v>
+        <v>181094</v>
       </c>
       <c r="C19" t="s">
         <v>177</v>
@@ -8263,7 +8263,7 @@
         <v>11391</v>
       </c>
       <c r="B20" t="n">
-        <v>149603</v>
+        <v>181095</v>
       </c>
       <c r="C20" t="s">
         <v>184</v>
@@ -8405,7 +8405,7 @@
         <v>11391</v>
       </c>
       <c r="B22" t="n">
-        <v>149604</v>
+        <v>181096</v>
       </c>
       <c r="C22" t="s">
         <v>197</v>
@@ -8476,7 +8476,7 @@
         <v>11391</v>
       </c>
       <c r="B23" t="n">
-        <v>149605</v>
+        <v>181097</v>
       </c>
       <c r="C23" t="s">
         <v>203</v>
@@ -8537,7 +8537,7 @@
         <v>11391</v>
       </c>
       <c r="B24" t="n">
-        <v>149606</v>
+        <v>181098</v>
       </c>
       <c r="C24" t="s">
         <v>210</v>
@@ -8811,7 +8811,7 @@
         <v>11391</v>
       </c>
       <c r="B28" t="n">
-        <v>149607</v>
+        <v>181099</v>
       </c>
       <c r="C28" t="s">
         <v>237</v>
@@ -8876,7 +8876,7 @@
         <v>11391</v>
       </c>
       <c r="B29" t="n">
-        <v>149608</v>
+        <v>181100</v>
       </c>
       <c r="C29" t="s">
         <v>244</v>
@@ -8941,7 +8941,7 @@
         <v>11391</v>
       </c>
       <c r="B30" t="n">
-        <v>149609</v>
+        <v>181101</v>
       </c>
       <c r="C30" t="s">
         <v>251</v>
@@ -9071,7 +9071,7 @@
         <v>11391</v>
       </c>
       <c r="B32" t="n">
-        <v>149610</v>
+        <v>181102</v>
       </c>
       <c r="C32" t="s">
         <v>264</v>
@@ -9136,7 +9136,7 @@
         <v>11391</v>
       </c>
       <c r="B33" t="n">
-        <v>149611</v>
+        <v>181103</v>
       </c>
       <c r="C33" t="s">
         <v>271</v>
@@ -9201,7 +9201,7 @@
         <v>11391</v>
       </c>
       <c r="B34" t="n">
-        <v>149612</v>
+        <v>181104</v>
       </c>
       <c r="C34" t="s">
         <v>278</v>
@@ -9266,7 +9266,7 @@
         <v>11391</v>
       </c>
       <c r="B35" t="n">
-        <v>149613</v>
+        <v>181105</v>
       </c>
       <c r="C35" t="s">
         <v>285</v>
@@ -9331,7 +9331,7 @@
         <v>11391</v>
       </c>
       <c r="B36" t="n">
-        <v>149614</v>
+        <v>181106</v>
       </c>
       <c r="C36" t="s">
         <v>292</v>
@@ -9400,7 +9400,7 @@
         <v>11391</v>
       </c>
       <c r="B37" t="n">
-        <v>149615</v>
+        <v>181107</v>
       </c>
       <c r="C37" t="s">
         <v>298</v>
@@ -9471,7 +9471,7 @@
         <v>11391</v>
       </c>
       <c r="B38" t="n">
-        <v>149616</v>
+        <v>181108</v>
       </c>
       <c r="C38" t="s">
         <v>305</v>
@@ -9601,7 +9601,7 @@
         <v>11391</v>
       </c>
       <c r="B40" t="n">
-        <v>149617</v>
+        <v>181109</v>
       </c>
       <c r="C40" t="s">
         <v>318</v>
@@ -9666,7 +9666,7 @@
         <v>11391</v>
       </c>
       <c r="B41" t="n">
-        <v>149618</v>
+        <v>181110</v>
       </c>
       <c r="C41" t="s">
         <v>324</v>
@@ -9800,7 +9800,7 @@
         <v>11391</v>
       </c>
       <c r="B43" t="n">
-        <v>149619</v>
+        <v>181111</v>
       </c>
       <c r="C43" t="s">
         <v>337</v>
@@ -9871,7 +9871,7 @@
         <v>11391</v>
       </c>
       <c r="B44" t="n">
-        <v>149620</v>
+        <v>181112</v>
       </c>
       <c r="C44" t="s">
         <v>343</v>
@@ -9932,7 +9932,7 @@
         <v>11391</v>
       </c>
       <c r="B45" t="n">
-        <v>149621</v>
+        <v>181113</v>
       </c>
       <c r="C45" t="s">
         <v>349</v>
@@ -9997,7 +9997,7 @@
         <v>11391</v>
       </c>
       <c r="B46" t="n">
-        <v>149622</v>
+        <v>181114</v>
       </c>
       <c r="C46" t="s">
         <v>355</v>
@@ -10123,7 +10123,7 @@
         <v>11391</v>
       </c>
       <c r="B48" t="n">
-        <v>149623</v>
+        <v>181115</v>
       </c>
       <c r="C48" t="s">
         <v>369</v>
@@ -10188,7 +10188,7 @@
         <v>11391</v>
       </c>
       <c r="B49" t="n">
-        <v>149624</v>
+        <v>181116</v>
       </c>
       <c r="C49" t="s">
         <v>376</v>
@@ -10249,7 +10249,7 @@
         <v>11391</v>
       </c>
       <c r="B50" t="n">
-        <v>149625</v>
+        <v>181117</v>
       </c>
       <c r="C50" t="s">
         <v>384</v>
@@ -10389,7 +10389,7 @@
         <v>11391</v>
       </c>
       <c r="B52" t="n">
-        <v>149626</v>
+        <v>181118</v>
       </c>
       <c r="C52" t="s">
         <v>399</v>
@@ -10460,7 +10460,7 @@
         <v>11391</v>
       </c>
       <c r="B53" t="n">
-        <v>149627</v>
+        <v>181119</v>
       </c>
       <c r="C53" t="s">
         <v>407</v>
@@ -10521,7 +10521,7 @@
         <v>11391</v>
       </c>
       <c r="B54" t="n">
-        <v>149628</v>
+        <v>181120</v>
       </c>
       <c r="C54" t="s">
         <v>414</v>
@@ -10588,7 +10588,7 @@
         <v>11391</v>
       </c>
       <c r="B55" t="n">
-        <v>149629</v>
+        <v>181121</v>
       </c>
       <c r="C55" t="s">
         <v>421</v>
@@ -10718,7 +10718,7 @@
         <v>11391</v>
       </c>
       <c r="B57" t="n">
-        <v>149630</v>
+        <v>181122</v>
       </c>
       <c r="C57" t="s">
         <v>436</v>
@@ -10854,7 +10854,7 @@
         <v>11391</v>
       </c>
       <c r="B59" t="n">
-        <v>149631</v>
+        <v>181123</v>
       </c>
       <c r="C59" t="s">
         <v>451</v>
@@ -10923,7 +10923,7 @@
         <v>11391</v>
       </c>
       <c r="B60" t="n">
-        <v>149632</v>
+        <v>181124</v>
       </c>
       <c r="C60" t="s">
         <v>458</v>
@@ -10988,7 +10988,7 @@
         <v>11391</v>
       </c>
       <c r="B61" t="n">
-        <v>149633</v>
+        <v>181125</v>
       </c>
       <c r="C61" t="s">
         <v>465</v>
@@ -11059,7 +11059,7 @@
         <v>11391</v>
       </c>
       <c r="B62" t="n">
-        <v>149634</v>
+        <v>181126</v>
       </c>
       <c r="C62" t="s">
         <v>472</v>
@@ -11193,7 +11193,7 @@
         <v>11391</v>
       </c>
       <c r="B64" t="n">
-        <v>149635</v>
+        <v>181127</v>
       </c>
       <c r="C64" t="s">
         <v>488</v>
@@ -11463,7 +11463,7 @@
         <v>11391</v>
       </c>
       <c r="B68" t="n">
-        <v>149636</v>
+        <v>181128</v>
       </c>
       <c r="C68" t="s">
         <v>515</v>
@@ -11528,7 +11528,7 @@
         <v>11391</v>
       </c>
       <c r="B69" t="n">
-        <v>149637</v>
+        <v>181129</v>
       </c>
       <c r="C69" t="s">
         <v>522</v>
@@ -11589,7 +11589,7 @@
         <v>11391</v>
       </c>
       <c r="B70" t="n">
-        <v>149638</v>
+        <v>181130</v>
       </c>
       <c r="C70" t="s">
         <v>529</v>
@@ -11715,7 +11715,7 @@
         <v>11391</v>
       </c>
       <c r="B72" t="n">
-        <v>149639</v>
+        <v>181131</v>
       </c>
       <c r="C72" t="s">
         <v>543</v>
@@ -11847,7 +11847,7 @@
         <v>11391</v>
       </c>
       <c r="B74" t="n">
-        <v>149640</v>
+        <v>181132</v>
       </c>
       <c r="C74" t="s">
         <v>557</v>
@@ -12040,7 +12040,7 @@
         <v>11391</v>
       </c>
       <c r="B77" t="n">
-        <v>149641</v>
+        <v>181133</v>
       </c>
       <c r="C77" t="s">
         <v>581</v>
@@ -12162,7 +12162,7 @@
         <v>11391</v>
       </c>
       <c r="B79" t="n">
-        <v>149642</v>
+        <v>181134</v>
       </c>
       <c r="C79" t="s">
         <v>593</v>
@@ -12290,7 +12290,7 @@
         <v>11391</v>
       </c>
       <c r="B81" t="n">
-        <v>149643</v>
+        <v>181135</v>
       </c>
       <c r="C81" t="s">
         <v>608</v>
@@ -12351,7 +12351,7 @@
         <v>11391</v>
       </c>
       <c r="B82" t="n">
-        <v>149644</v>
+        <v>181136</v>
       </c>
       <c r="C82" t="s">
         <v>614</v>
@@ -12418,7 +12418,7 @@
         <v>11391</v>
       </c>
       <c r="B83" t="n">
-        <v>149645</v>
+        <v>181137</v>
       </c>
       <c r="C83" t="s">
         <v>620</v>
@@ -12485,7 +12485,7 @@
         <v>11391</v>
       </c>
       <c r="B84" t="n">
-        <v>149646</v>
+        <v>181138</v>
       </c>
       <c r="C84" t="s">
         <v>626</v>
@@ -12546,7 +12546,7 @@
         <v>11391</v>
       </c>
       <c r="B85" t="n">
-        <v>149647</v>
+        <v>181139</v>
       </c>
       <c r="C85" t="s">
         <v>632</v>
@@ -12611,7 +12611,7 @@
         <v>11391</v>
       </c>
       <c r="B86" t="n">
-        <v>149648</v>
+        <v>181140</v>
       </c>
       <c r="C86" t="s">
         <v>638</v>
@@ -12798,7 +12798,7 @@
         <v>11391</v>
       </c>
       <c r="B89" t="n">
-        <v>149649</v>
+        <v>181141</v>
       </c>
       <c r="C89" t="s">
         <v>657</v>
@@ -13003,7 +13003,7 @@
         <v>11391</v>
       </c>
       <c r="B92" t="n">
-        <v>149650</v>
+        <v>181142</v>
       </c>
       <c r="C92" t="s">
         <v>680</v>
@@ -13263,7 +13263,7 @@
         <v>11391</v>
       </c>
       <c r="B96" t="n">
-        <v>149651</v>
+        <v>181143</v>
       </c>
       <c r="C96" t="s">
         <v>708</v>
@@ -13332,7 +13332,7 @@
         <v>11391</v>
       </c>
       <c r="B97" t="n">
-        <v>149652</v>
+        <v>149629</v>
       </c>
       <c r="C97" t="s">
         <v>717</v>
@@ -13397,7 +13397,7 @@
         <v>11391</v>
       </c>
       <c r="B98" t="n">
-        <v>149653</v>
+        <v>181144</v>
       </c>
       <c r="C98" t="s">
         <v>723</v>
@@ -13462,7 +13462,7 @@
         <v>11391</v>
       </c>
       <c r="B99" t="n">
-        <v>149654</v>
+        <v>181145</v>
       </c>
       <c r="C99" t="s">
         <v>730</v>
@@ -13588,7 +13588,7 @@
         <v>11391</v>
       </c>
       <c r="B101" t="n">
-        <v>149655</v>
+        <v>181146</v>
       </c>
       <c r="C101" t="s">
         <v>743</v>
@@ -13659,7 +13659,7 @@
         <v>11391</v>
       </c>
       <c r="B102" t="n">
-        <v>149656</v>
+        <v>181147</v>
       </c>
       <c r="C102" t="s">
         <v>750</v>
@@ -13728,7 +13728,7 @@
         <v>11391</v>
       </c>
       <c r="B103" t="n">
-        <v>149657</v>
+        <v>181148</v>
       </c>
       <c r="C103" t="s">
         <v>756</v>
@@ -13862,7 +13862,7 @@
         <v>11391</v>
       </c>
       <c r="B105" t="n">
-        <v>149658</v>
+        <v>181149</v>
       </c>
       <c r="C105" t="s">
         <v>768</v>
@@ -13927,7 +13927,7 @@
         <v>11391</v>
       </c>
       <c r="B106" t="n">
-        <v>149659</v>
+        <v>181150</v>
       </c>
       <c r="C106" t="s">
         <v>775</v>
@@ -13992,7 +13992,7 @@
         <v>11391</v>
       </c>
       <c r="B107" t="n">
-        <v>149660</v>
+        <v>181151</v>
       </c>
       <c r="C107" t="s">
         <v>783</v>
@@ -14063,7 +14063,7 @@
         <v>11391</v>
       </c>
       <c r="B108" t="n">
-        <v>149661</v>
+        <v>181152</v>
       </c>
       <c r="C108" t="s">
         <v>792</v>
@@ -14132,7 +14132,7 @@
         <v>11391</v>
       </c>
       <c r="B109" t="n">
-        <v>149662</v>
+        <v>181153</v>
       </c>
       <c r="C109" t="s">
         <v>799</v>
@@ -14193,7 +14193,7 @@
         <v>11391</v>
       </c>
       <c r="B110" t="n">
-        <v>149663</v>
+        <v>181154</v>
       </c>
       <c r="C110" t="s">
         <v>807</v>
@@ -14323,7 +14323,7 @@
         <v>11391</v>
       </c>
       <c r="B112" t="n">
-        <v>149664</v>
+        <v>181155</v>
       </c>
       <c r="C112" t="s">
         <v>820</v>
@@ -14384,7 +14384,7 @@
         <v>11391</v>
       </c>
       <c r="B113" t="n">
-        <v>149665</v>
+        <v>181156</v>
       </c>
       <c r="C113" t="s">
         <v>826</v>
@@ -14449,7 +14449,7 @@
         <v>11391</v>
       </c>
       <c r="B114" t="n">
-        <v>149666</v>
+        <v>181157</v>
       </c>
       <c r="C114" t="s">
         <v>833</v>
@@ -14520,7 +14520,7 @@
         <v>11391</v>
       </c>
       <c r="B115" t="n">
-        <v>149667</v>
+        <v>181158</v>
       </c>
       <c r="C115" t="s">
         <v>840</v>
@@ -14591,7 +14591,7 @@
         <v>11391</v>
       </c>
       <c r="B116" t="n">
-        <v>149668</v>
+        <v>181159</v>
       </c>
       <c r="C116" t="s">
         <v>847</v>
@@ -14721,7 +14721,7 @@
         <v>11391</v>
       </c>
       <c r="B118" t="n">
-        <v>149669</v>
+        <v>181160</v>
       </c>
       <c r="C118" t="s">
         <v>861</v>
@@ -14916,7 +14916,7 @@
         <v>11391</v>
       </c>
       <c r="B121" t="n">
-        <v>149670</v>
+        <v>181161</v>
       </c>
       <c r="C121" t="s">
         <v>884</v>
@@ -15056,7 +15056,7 @@
         <v>11391</v>
       </c>
       <c r="B123" t="n">
-        <v>149671</v>
+        <v>181162</v>
       </c>
       <c r="C123" t="s">
         <v>898</v>
@@ -15121,7 +15121,7 @@
         <v>11391</v>
       </c>
       <c r="B124" t="n">
-        <v>149651</v>
+        <v>149629</v>
       </c>
       <c r="C124" t="s">
         <v>717</v>
@@ -15456,7 +15456,7 @@
         <v>11391</v>
       </c>
       <c r="B129" t="n">
-        <v>149672</v>
+        <v>181163</v>
       </c>
       <c r="C129" t="s">
         <v>937</v>
@@ -15521,7 +15521,7 @@
         <v>11391</v>
       </c>
       <c r="B130" t="n">
-        <v>149673</v>
+        <v>181164</v>
       </c>
       <c r="C130" t="s">
         <v>943</v>
@@ -15657,7 +15657,7 @@
         <v>11391</v>
       </c>
       <c r="B132" t="n">
-        <v>149674</v>
+        <v>181165</v>
       </c>
       <c r="C132" t="s">
         <v>958</v>
@@ -15728,7 +15728,7 @@
         <v>11391</v>
       </c>
       <c r="B133" t="n">
-        <v>149675</v>
+        <v>181166</v>
       </c>
       <c r="C133" t="s">
         <v>965</v>
@@ -15799,7 +15799,7 @@
         <v>11391</v>
       </c>
       <c r="B134" t="n">
-        <v>149676</v>
+        <v>181167</v>
       </c>
       <c r="C134" t="s">
         <v>972</v>
@@ -15864,7 +15864,7 @@
         <v>11391</v>
       </c>
       <c r="B135" t="n">
-        <v>149677</v>
+        <v>181168</v>
       </c>
       <c r="C135" t="s">
         <v>981</v>
@@ -16268,7 +16268,7 @@
         <v>11391</v>
       </c>
       <c r="B141" t="n">
-        <v>149678</v>
+        <v>181169</v>
       </c>
       <c r="C141" t="s">
         <v>1023</v>
@@ -16481,7 +16481,7 @@
         <v>11391</v>
       </c>
       <c r="B144" t="n">
-        <v>149679</v>
+        <v>181170</v>
       </c>
       <c r="C144" t="s">
         <v>1043</v>
@@ -16550,7 +16550,7 @@
         <v>11391</v>
       </c>
       <c r="B145" t="n">
-        <v>149680</v>
+        <v>181171</v>
       </c>
       <c r="C145" t="s">
         <v>1049</v>
@@ -16621,7 +16621,7 @@
         <v>11391</v>
       </c>
       <c r="B146" t="n">
-        <v>149681</v>
+        <v>149689</v>
       </c>
       <c r="C146" t="s">
         <v>1055</v>
@@ -16682,7 +16682,7 @@
         <v>11391</v>
       </c>
       <c r="B147" t="n">
-        <v>149682</v>
+        <v>181172</v>
       </c>
       <c r="C147" t="s">
         <v>1062</v>
@@ -16751,7 +16751,7 @@
         <v>11391</v>
       </c>
       <c r="B148" t="n">
-        <v>149683</v>
+        <v>181173</v>
       </c>
       <c r="C148" t="s">
         <v>1069</v>
@@ -16816,7 +16816,7 @@
         <v>11391</v>
       </c>
       <c r="B149" t="n">
-        <v>149684</v>
+        <v>181174</v>
       </c>
       <c r="C149" t="s">
         <v>1076</v>
@@ -16883,7 +16883,7 @@
         <v>11391</v>
       </c>
       <c r="B150" t="n">
-        <v>149685</v>
+        <v>181175</v>
       </c>
       <c r="C150" t="s">
         <v>1083</v>
@@ -16952,7 +16952,7 @@
         <v>11391</v>
       </c>
       <c r="B151" t="n">
-        <v>149686</v>
+        <v>181176</v>
       </c>
       <c r="C151" t="s">
         <v>1091</v>
@@ -17208,7 +17208,7 @@
         <v>11391</v>
       </c>
       <c r="B155" t="n">
-        <v>149687</v>
+        <v>181177</v>
       </c>
       <c r="C155" t="s">
         <v>1116</v>
@@ -17269,7 +17269,7 @@
         <v>11391</v>
       </c>
       <c r="B156" t="n">
-        <v>149688</v>
+        <v>181178</v>
       </c>
       <c r="C156" t="s">
         <v>1122</v>
@@ -17401,7 +17401,7 @@
         <v>11391</v>
       </c>
       <c r="B158" t="n">
-        <v>149689</v>
+        <v>181179</v>
       </c>
       <c r="C158" t="s">
         <v>1134</v>
@@ -17468,7 +17468,7 @@
         <v>11391</v>
       </c>
       <c r="B159" t="n">
-        <v>149690</v>
+        <v>181180</v>
       </c>
       <c r="C159" t="s">
         <v>1141</v>
@@ -17533,7 +17533,7 @@
         <v>11391</v>
       </c>
       <c r="B160" t="n">
-        <v>149691</v>
+        <v>181181</v>
       </c>
       <c r="C160" t="s">
         <v>1148</v>
@@ -17594,7 +17594,7 @@
         <v>11391</v>
       </c>
       <c r="B161" t="n">
-        <v>149692</v>
+        <v>181182</v>
       </c>
       <c r="C161" t="s">
         <v>1155</v>
@@ -17728,7 +17728,7 @@
         <v>11391</v>
       </c>
       <c r="B163" t="n">
-        <v>149693</v>
+        <v>181183</v>
       </c>
       <c r="C163" t="s">
         <v>1170</v>
@@ -17795,7 +17795,7 @@
         <v>11391</v>
       </c>
       <c r="B164" t="n">
-        <v>149694</v>
+        <v>181184</v>
       </c>
       <c r="C164" t="s">
         <v>1177</v>
@@ -17862,7 +17862,7 @@
         <v>11391</v>
       </c>
       <c r="B165" t="n">
-        <v>149695</v>
+        <v>181185</v>
       </c>
       <c r="C165" t="s">
         <v>1184</v>
@@ -18000,7 +18000,7 @@
         <v>11391</v>
       </c>
       <c r="B167" t="n">
-        <v>149696</v>
+        <v>181186</v>
       </c>
       <c r="C167" t="s">
         <v>1199</v>
@@ -18071,7 +18071,7 @@
         <v>11391</v>
       </c>
       <c r="B168" t="n">
-        <v>149697</v>
+        <v>181187</v>
       </c>
       <c r="C168" t="s">
         <v>1206</v>
@@ -18136,7 +18136,7 @@
         <v>11391</v>
       </c>
       <c r="B169" t="n">
-        <v>149698</v>
+        <v>181188</v>
       </c>
       <c r="C169" t="s">
         <v>1213</v>
@@ -18270,7 +18270,7 @@
         <v>11391</v>
       </c>
       <c r="B171" t="n">
-        <v>149699</v>
+        <v>181189</v>
       </c>
       <c r="C171" t="s">
         <v>1228</v>
@@ -18341,7 +18341,7 @@
         <v>11391</v>
       </c>
       <c r="B172" t="n">
-        <v>149700</v>
+        <v>181190</v>
       </c>
       <c r="C172" t="s">
         <v>1235</v>
@@ -18412,7 +18412,7 @@
         <v>11391</v>
       </c>
       <c r="B173" t="n">
-        <v>149701</v>
+        <v>181191</v>
       </c>
       <c r="C173" t="s">
         <v>1243</v>
@@ -18548,7 +18548,7 @@
         <v>11391</v>
       </c>
       <c r="B175" t="n">
-        <v>149702</v>
+        <v>181192</v>
       </c>
       <c r="C175" t="s">
         <v>1257</v>
@@ -18617,7 +18617,7 @@
         <v>11391</v>
       </c>
       <c r="B176" t="n">
-        <v>149703</v>
+        <v>181193</v>
       </c>
       <c r="C176" t="s">
         <v>1264</v>
@@ -18688,7 +18688,7 @@
         <v>11391</v>
       </c>
       <c r="B177" t="n">
-        <v>149704</v>
+        <v>181194</v>
       </c>
       <c r="C177" t="s">
         <v>1271</v>
@@ -18755,7 +18755,7 @@
         <v>11391</v>
       </c>
       <c r="B178" t="n">
-        <v>149705</v>
+        <v>181195</v>
       </c>
       <c r="C178" t="s">
         <v>1278</v>
@@ -19031,7 +19031,7 @@
         <v>11391</v>
       </c>
       <c r="B182" t="n">
-        <v>149706</v>
+        <v>181196</v>
       </c>
       <c r="C182" t="s">
         <v>1310</v>
@@ -19092,7 +19092,7 @@
         <v>11391</v>
       </c>
       <c r="B183" t="n">
-        <v>149707</v>
+        <v>181197</v>
       </c>
       <c r="C183" t="s">
         <v>1317</v>
@@ -19153,7 +19153,7 @@
         <v>11391</v>
       </c>
       <c r="B184" t="n">
-        <v>149708</v>
+        <v>181198</v>
       </c>
       <c r="C184" t="s">
         <v>1323</v>
@@ -19218,7 +19218,7 @@
         <v>11391</v>
       </c>
       <c r="B185" t="n">
-        <v>149709</v>
+        <v>181199</v>
       </c>
       <c r="C185" t="s">
         <v>1329</v>
@@ -19289,7 +19289,7 @@
         <v>11391</v>
       </c>
       <c r="B186" t="n">
-        <v>149710</v>
+        <v>181200</v>
       </c>
       <c r="C186" t="s">
         <v>1336</v>
@@ -19350,7 +19350,7 @@
         <v>11391</v>
       </c>
       <c r="B187" t="n">
-        <v>149711</v>
+        <v>181201</v>
       </c>
       <c r="C187" t="s">
         <v>1343</v>
@@ -19419,7 +19419,7 @@
         <v>11391</v>
       </c>
       <c r="B188" t="n">
-        <v>149712</v>
+        <v>181202</v>
       </c>
       <c r="C188" t="s">
         <v>1350</v>
@@ -19486,7 +19486,7 @@
         <v>11391</v>
       </c>
       <c r="B189" t="n">
-        <v>149713</v>
+        <v>181203</v>
       </c>
       <c r="C189" t="s">
         <v>1356</v>
@@ -19555,7 +19555,7 @@
         <v>11391</v>
       </c>
       <c r="B190" t="n">
-        <v>149714</v>
+        <v>181204</v>
       </c>
       <c r="C190" t="s">
         <v>1365</v>
@@ -19760,7 +19760,7 @@
         <v>11391</v>
       </c>
       <c r="B193" t="n">
-        <v>149715</v>
+        <v>181205</v>
       </c>
       <c r="C193" t="s">
         <v>1385</v>
@@ -19827,7 +19827,7 @@
         <v>11391</v>
       </c>
       <c r="B194" t="n">
-        <v>149716</v>
+        <v>181206</v>
       </c>
       <c r="C194" t="s">
         <v>1390</v>
@@ -20032,7 +20032,7 @@
         <v>11391</v>
       </c>
       <c r="B197" t="n">
-        <v>149717</v>
+        <v>181207</v>
       </c>
       <c r="C197" t="s">
         <v>1410</v>
@@ -20099,7 +20099,7 @@
         <v>11391</v>
       </c>
       <c r="B198" t="n">
-        <v>149718</v>
+        <v>181208</v>
       </c>
       <c r="C198" t="s">
         <v>1416</v>
@@ -20166,7 +20166,7 @@
         <v>11391</v>
       </c>
       <c r="B199" t="n">
-        <v>149719</v>
+        <v>181209</v>
       </c>
       <c r="C199" t="s">
         <v>1422</v>
@@ -20353,7 +20353,7 @@
         <v>11391</v>
       </c>
       <c r="B202" t="n">
-        <v>149720</v>
+        <v>181210</v>
       </c>
       <c r="C202" t="s">
         <v>1443</v>
@@ -20554,7 +20554,7 @@
         <v>11391</v>
       </c>
       <c r="B205" t="n">
-        <v>149721</v>
+        <v>181211</v>
       </c>
       <c r="C205" t="s">
         <v>1465</v>
@@ -20688,7 +20688,7 @@
         <v>11391</v>
       </c>
       <c r="B207" t="n">
-        <v>149722</v>
+        <v>181212</v>
       </c>
       <c r="C207" t="s">
         <v>1482</v>
@@ -20755,7 +20755,7 @@
         <v>11391</v>
       </c>
       <c r="B208" t="n">
-        <v>149723</v>
+        <v>181213</v>
       </c>
       <c r="C208" t="s">
         <v>1488</v>
@@ -20826,7 +20826,7 @@
         <v>11391</v>
       </c>
       <c r="B209" t="n">
-        <v>149724</v>
+        <v>181214</v>
       </c>
       <c r="C209" t="s">
         <v>1495</v>
@@ -20891,7 +20891,7 @@
         <v>11391</v>
       </c>
       <c r="B210" t="n">
-        <v>149725</v>
+        <v>181215</v>
       </c>
       <c r="C210" t="s">
         <v>1503</v>
@@ -20952,7 +20952,7 @@
         <v>11391</v>
       </c>
       <c r="B211" t="n">
-        <v>149726</v>
+        <v>181216</v>
       </c>
       <c r="C211" t="s">
         <v>1509</v>
@@ -21017,7 +21017,7 @@
         <v>11391</v>
       </c>
       <c r="B212" t="n">
-        <v>149727</v>
+        <v>181217</v>
       </c>
       <c r="C212" t="s">
         <v>1516</v>
@@ -21086,7 +21086,7 @@
         <v>11391</v>
       </c>
       <c r="B213" t="n">
-        <v>149728</v>
+        <v>181218</v>
       </c>
       <c r="C213" t="s">
         <v>1523</v>
@@ -21216,7 +21216,7 @@
         <v>11391</v>
       </c>
       <c r="B215" t="n">
-        <v>149729</v>
+        <v>181219</v>
       </c>
       <c r="C215" t="s">
         <v>1537</v>
@@ -21415,7 +21415,7 @@
         <v>11391</v>
       </c>
       <c r="B218" t="n">
-        <v>149730</v>
+        <v>181220</v>
       </c>
       <c r="C218" t="s">
         <v>1557</v>
@@ -21480,7 +21480,7 @@
         <v>11391</v>
       </c>
       <c r="B219" t="n">
-        <v>149731</v>
+        <v>181221</v>
       </c>
       <c r="C219" t="s">
         <v>1564</v>
@@ -21547,7 +21547,7 @@
         <v>11391</v>
       </c>
       <c r="B220" t="n">
-        <v>149732</v>
+        <v>181222</v>
       </c>
       <c r="C220" t="s">
         <v>1570</v>
@@ -21612,7 +21612,7 @@
         <v>11391</v>
       </c>
       <c r="B221" t="n">
-        <v>149733</v>
+        <v>181223</v>
       </c>
       <c r="C221" t="s">
         <v>1577</v>
@@ -21679,7 +21679,7 @@
         <v>11391</v>
       </c>
       <c r="B222" t="n">
-        <v>149734</v>
+        <v>181224</v>
       </c>
       <c r="C222" t="s">
         <v>1583</v>
@@ -21740,7 +21740,7 @@
         <v>11391</v>
       </c>
       <c r="B223" t="n">
-        <v>149735</v>
+        <v>181225</v>
       </c>
       <c r="C223" t="s">
         <v>1589</v>
@@ -21929,7 +21929,7 @@
         <v>11391</v>
       </c>
       <c r="B226" t="n">
-        <v>149736</v>
+        <v>181226</v>
       </c>
       <c r="C226" t="s">
         <v>1610</v>
@@ -21990,7 +21990,7 @@
         <v>11391</v>
       </c>
       <c r="B227" t="n">
-        <v>149737</v>
+        <v>181227</v>
       </c>
       <c r="C227" t="s">
         <v>1616</v>
@@ -22126,7 +22126,7 @@
         <v>11391</v>
       </c>
       <c r="B229" t="n">
-        <v>149738</v>
+        <v>181228</v>
       </c>
       <c r="C229" t="s">
         <v>1629</v>
@@ -22187,7 +22187,7 @@
         <v>11391</v>
       </c>
       <c r="B230" t="n">
-        <v>149651</v>
+        <v>149629</v>
       </c>
       <c r="C230" t="s">
         <v>717</v>
@@ -22252,7 +22252,7 @@
         <v>11391</v>
       </c>
       <c r="B231" t="n">
-        <v>149739</v>
+        <v>181229</v>
       </c>
       <c r="C231" t="s">
         <v>1642</v>
@@ -22317,7 +22317,7 @@
         <v>11391</v>
       </c>
       <c r="B232" t="n">
-        <v>149740</v>
+        <v>181230</v>
       </c>
       <c r="C232" t="s">
         <v>1647</v>
@@ -22713,7 +22713,7 @@
         <v>11391</v>
       </c>
       <c r="B238" t="n">
-        <v>149741</v>
+        <v>181231</v>
       </c>
       <c r="C238" t="s">
         <v>1685</v>
@@ -22784,7 +22784,7 @@
         <v>11391</v>
       </c>
       <c r="B239" t="n">
-        <v>149742</v>
+        <v>181232</v>
       </c>
       <c r="C239" t="s">
         <v>1692</v>
@@ -22845,7 +22845,7 @@
         <v>11391</v>
       </c>
       <c r="B240" t="n">
-        <v>149743</v>
+        <v>181233</v>
       </c>
       <c r="C240" t="s">
         <v>1699</v>
@@ -22977,7 +22977,7 @@
         <v>11391</v>
       </c>
       <c r="B242" t="n">
-        <v>149744</v>
+        <v>181234</v>
       </c>
       <c r="C242" t="s">
         <v>1712</v>
@@ -23042,7 +23042,7 @@
         <v>11391</v>
       </c>
       <c r="B243" t="n">
-        <v>149745</v>
+        <v>181235</v>
       </c>
       <c r="C243" t="s">
         <v>1719</v>
@@ -23109,7 +23109,7 @@
         <v>11391</v>
       </c>
       <c r="B244" t="n">
-        <v>149746</v>
+        <v>181236</v>
       </c>
       <c r="C244" t="s">
         <v>1724</v>
@@ -23176,7 +23176,7 @@
         <v>11391</v>
       </c>
       <c r="B245" t="n">
-        <v>149747</v>
+        <v>181237</v>
       </c>
       <c r="C245" t="s">
         <v>1731</v>
@@ -23438,7 +23438,7 @@
         <v>11391</v>
       </c>
       <c r="B249" t="n">
-        <v>149748</v>
+        <v>181238</v>
       </c>
       <c r="C249" t="s">
         <v>1758</v>
@@ -23633,7 +23633,7 @@
         <v>11391</v>
       </c>
       <c r="B252" t="n">
-        <v>149749</v>
+        <v>181239</v>
       </c>
       <c r="C252" t="s">
         <v>1778</v>
@@ -23704,7 +23704,7 @@
         <v>11391</v>
       </c>
       <c r="B253" t="n">
-        <v>149750</v>
+        <v>181240</v>
       </c>
       <c r="C253" t="s">
         <v>1785</v>
@@ -23901,7 +23901,7 @@
         <v>11391</v>
       </c>
       <c r="B256" t="n">
-        <v>149751</v>
+        <v>181241</v>
       </c>
       <c r="C256" t="s">
         <v>1806</v>
@@ -23962,7 +23962,7 @@
         <v>11391</v>
       </c>
       <c r="B257" t="n">
-        <v>149752</v>
+        <v>181242</v>
       </c>
       <c r="C257" t="s">
         <v>1812</v>
@@ -24102,7 +24102,7 @@
         <v>11391</v>
       </c>
       <c r="B259" t="n">
-        <v>149753</v>
+        <v>181243</v>
       </c>
       <c r="C259" t="s">
         <v>1830</v>
@@ -24232,7 +24232,7 @@
         <v>11391</v>
       </c>
       <c r="B261" t="n">
-        <v>149754</v>
+        <v>181244</v>
       </c>
       <c r="C261" t="s">
         <v>1843</v>
@@ -24297,7 +24297,7 @@
         <v>11391</v>
       </c>
       <c r="B262" t="n">
-        <v>149755</v>
+        <v>181245</v>
       </c>
       <c r="C262" t="s">
         <v>1849</v>
@@ -24435,7 +24435,7 @@
         <v>11391</v>
       </c>
       <c r="B264" t="n">
-        <v>149756</v>
+        <v>181246</v>
       </c>
       <c r="C264" t="s">
         <v>1863</v>
@@ -24496,7 +24496,7 @@
         <v>11391</v>
       </c>
       <c r="B265" t="n">
-        <v>149757</v>
+        <v>181247</v>
       </c>
       <c r="C265" t="s">
         <v>1869</v>
@@ -24561,7 +24561,7 @@
         <v>11391</v>
       </c>
       <c r="B266" t="n">
-        <v>149758</v>
+        <v>181248</v>
       </c>
       <c r="C266" t="s">
         <v>1874</v>
@@ -24626,7 +24626,7 @@
         <v>11391</v>
       </c>
       <c r="B267" t="n">
-        <v>149759</v>
+        <v>181249</v>
       </c>
       <c r="C267" t="s">
         <v>1883</v>
@@ -24691,7 +24691,7 @@
         <v>11391</v>
       </c>
       <c r="B268" t="n">
-        <v>149760</v>
+        <v>181250</v>
       </c>
       <c r="C268" t="s">
         <v>1890</v>
@@ -24827,7 +24827,7 @@
         <v>11391</v>
       </c>
       <c r="B270" t="n">
-        <v>149761</v>
+        <v>181251</v>
       </c>
       <c r="C270" t="s">
         <v>1906</v>
@@ -24892,7 +24892,7 @@
         <v>11391</v>
       </c>
       <c r="B271" t="n">
-        <v>149762</v>
+        <v>181252</v>
       </c>
       <c r="C271" t="s">
         <v>1913</v>
@@ -25166,7 +25166,7 @@
         <v>11391</v>
       </c>
       <c r="B275" t="n">
-        <v>149763</v>
+        <v>181253</v>
       </c>
       <c r="C275" t="s">
         <v>1937</v>
@@ -25237,7 +25237,7 @@
         <v>11391</v>
       </c>
       <c r="B276" t="n">
-        <v>149764</v>
+        <v>181254</v>
       </c>
       <c r="C276" t="s">
         <v>1946</v>
@@ -25302,7 +25302,7 @@
         <v>11391</v>
       </c>
       <c r="B277" t="n">
-        <v>149680</v>
+        <v>149689</v>
       </c>
       <c r="C277" t="s">
         <v>1055</v>
@@ -25367,7 +25367,7 @@
         <v>11391</v>
       </c>
       <c r="B278" t="n">
-        <v>149765</v>
+        <v>181255</v>
       </c>
       <c r="C278" t="s">
         <v>1962</v>
@@ -25436,7 +25436,7 @@
         <v>11391</v>
       </c>
       <c r="B279" t="n">
-        <v>149766</v>
+        <v>181256</v>
       </c>
       <c r="C279" t="s">
         <v>1969</v>
@@ -25505,7 +25505,7 @@
         <v>11391</v>
       </c>
       <c r="B280" t="n">
-        <v>149767</v>
+        <v>181257</v>
       </c>
       <c r="C280" t="s">
         <v>1976</v>
@@ -25576,7 +25576,7 @@
         <v>11391</v>
       </c>
       <c r="B281" t="n">
-        <v>149768</v>
+        <v>181258</v>
       </c>
       <c r="C281" t="s">
         <v>1984</v>
@@ -25846,7 +25846,7 @@
         <v>11391</v>
       </c>
       <c r="B285" t="n">
-        <v>149769</v>
+        <v>181259</v>
       </c>
       <c r="C285" t="s">
         <v>2012</v>
@@ -26041,7 +26041,7 @@
         <v>11391</v>
       </c>
       <c r="B288" t="n">
-        <v>149770</v>
+        <v>181260</v>
       </c>
       <c r="C288" t="s">
         <v>2033</v>
@@ -26110,7 +26110,7 @@
         <v>11391</v>
       </c>
       <c r="B289" t="n">
-        <v>149771</v>
+        <v>181261</v>
       </c>
       <c r="C289" t="s">
         <v>2040</v>
@@ -26181,7 +26181,7 @@
         <v>11391</v>
       </c>
       <c r="B290" t="n">
-        <v>149772</v>
+        <v>181262</v>
       </c>
       <c r="C290" t="s">
         <v>2049</v>
@@ -26250,7 +26250,7 @@
         <v>11391</v>
       </c>
       <c r="B291" t="n">
-        <v>149773</v>
+        <v>181263</v>
       </c>
       <c r="C291" t="s">
         <v>2056</v>
@@ -26386,7 +26386,7 @@
         <v>11391</v>
       </c>
       <c r="B293" t="n">
-        <v>149774</v>
+        <v>181264</v>
       </c>
       <c r="C293" t="s">
         <v>2070</v>
@@ -26457,7 +26457,7 @@
         <v>11391</v>
       </c>
       <c r="B294" t="n">
-        <v>149595</v>
+        <v>149696</v>
       </c>
       <c r="C294" t="s">
         <v>114</v>
@@ -26522,7 +26522,7 @@
         <v>11391</v>
       </c>
       <c r="B295" t="n">
-        <v>149775</v>
+        <v>181265</v>
       </c>
       <c r="C295" t="s">
         <v>2083</v>
@@ -26591,7 +26591,7 @@
         <v>11391</v>
       </c>
       <c r="B296" t="n">
-        <v>149776</v>
+        <v>181266</v>
       </c>
       <c r="C296" t="s">
         <v>2090</v>
@@ -26660,7 +26660,7 @@
         <v>11391</v>
       </c>
       <c r="B297" t="n">
-        <v>149777</v>
+        <v>181267</v>
       </c>
       <c r="C297" t="s">
         <v>2099</v>
@@ -26794,7 +26794,7 @@
         <v>11391</v>
       </c>
       <c r="B299" t="n">
-        <v>149778</v>
+        <v>181268</v>
       </c>
       <c r="C299" t="s">
         <v>2115</v>
